--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2353086.244220375</v>
+        <v>2428615.91388518</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9700744.674908344</v>
+        <v>9700744.674908342</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.72504692250081</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.2714004773674</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>50.04168889956921</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>39.64249074263788</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.96813536721593</v>
+        <v>391.6264362238447</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.46712896146769</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>162.3364906735235</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>174.0148681245695</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>128.9324335279904</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>84.16790000022195</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.0385312981768</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.2425576766695</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.00039123758597</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.61518445926409</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>126.6175690697015</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.2952773523773</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>164.274298968758</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>97.27594153872442</v>
       </c>
       <c r="V22" t="n">
-        <v>170.7420539877312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>89.75370709520519</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>24.79905274949069</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>146.5598899221767</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>119.455025053688</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.5140647174406</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>137.9630269402561</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>123.4233208501891</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>196.3347907243922</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.14700674866013</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>61.86209105104052</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>112.7232111520217</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>31.78642112991783</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>31.26947999741145</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>23.54872654977478</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>49.13486603126707</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>164.4117978075328</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4369,13 @@
         <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1749.837976142366</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>495.9333588715792</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C4" t="n">
-        <v>495.9333588715792</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D4" t="n">
-        <v>495.9333588715792</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>677.5818237018188</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>677.5818237018188</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>677.5818237018188</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="X4" t="n">
-        <v>677.5818237018188</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.5818237018188</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.2786438284563</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>512.2786438284563</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2786438284563</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="E5" t="n">
-        <v>512.2786438284563</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925781</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.047981881067</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>124.1117989531601</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>124.1117989531601</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.047981881067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1521.073833303755</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
         <v>959.5129866402885</v>
@@ -4799,13 +4801,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2566.914309676818</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2348.279642648881</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303755</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4896,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.2840617486069</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>138.9610626286695</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>426.2840617486069</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>426.2840617486069</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y10" t="n">
-        <v>426.2840617486069</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5020,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,25 +5041,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
@@ -5072,13 +5074,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5118,22 +5120,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7283310300498</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.0479578003561</v>
+        <v>705.247117931376</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>705.247117931376</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>555.1304785190403</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>555.1304785190403</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>408.2405310211299</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>240.0652093409505</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.6964226305959</v>
+        <v>705.247117931376</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,34 +5266,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5364,19 +5366,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975555</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1425.567599386929</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1425.567599386929</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.782184176434</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>912.6535453899926</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>912.6535453899926</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>623.236375353032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>395.2468244550147</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>564.4843764226426</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203138</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.969903867171</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1343.062455050451</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1119.277039839956</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>1119.277039839956</v>
       </c>
       <c r="V19" t="n">
-        <v>874.927113122792</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="W19" t="n">
-        <v>874.927113122792</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X19" t="n">
-        <v>708.9934778008142</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.9934778008142</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K21" t="n">
-        <v>485.520085263587</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>3266.14101933622</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>4070.552597600371</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>4350.092662819068</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3774.981524342492</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C22" t="n">
-        <v>3606.045341414585</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D22" t="n">
-        <v>3606.045341414585</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414585</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916675</v>
@@ -5935,25 +5937,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>4236.865415579181</v>
+        <v>4227.815517474384</v>
       </c>
       <c r="V22" t="n">
-        <v>4064.398694379453</v>
+        <v>3973.131029268497</v>
       </c>
       <c r="W22" t="n">
-        <v>3774.981524342492</v>
+        <v>3973.131029268497</v>
       </c>
       <c r="X22" t="n">
-        <v>3774.981524342492</v>
+        <v>3973.131029268497</v>
       </c>
       <c r="Y22" t="n">
-        <v>3774.981524342492</v>
+        <v>3752.338450124967</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5968,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6014,19 +6016,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975555</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>618.0053231677515</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705745</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705745</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705745</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141521</v>
+        <v>3893.047489476503</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.446367141521</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.6537879979912</v>
+        <v>3867.997941244694</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>988.7065213774116</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>819.7703384495047</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1378.254629089531</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1154.469213879036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1154.469213879036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1154.469213879036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>865.0520438420759</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>637.0624929440586</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.2699138005285</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,19 +6548,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.3586382081045</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C31" t="n">
-        <v>324.4224552801976</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383442</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0071030383442</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X31" t="n">
-        <v>675.0071030383442</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.0071030383442</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>315.6192635197069</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L33" t="n">
-        <v>929.5163332765956</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556557</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>860.7301020851612</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,46 +6864,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T34" t="n">
-        <v>1263.171146058931</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U34" t="n">
-        <v>1263.171146058931</v>
+        <v>1300.59830012922</v>
       </c>
       <c r="V34" t="n">
-        <v>1263.171146058931</v>
+        <v>1300.59830012922</v>
       </c>
       <c r="W34" t="n">
-        <v>1263.171146058931</v>
+        <v>1011.181130092259</v>
       </c>
       <c r="X34" t="n">
-        <v>1263.171146058931</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1042.378566915401</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3775.243809179249</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="C37" t="n">
-        <v>3775.243809179249</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="D37" t="n">
-        <v>3775.243809179249</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596856</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596856</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>4836.463657106556</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>4836.463657106556</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T37" t="n">
-        <v>4836.463657106556</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U37" t="n">
-        <v>4547.335018320114</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V37" t="n">
-        <v>4292.650530114227</v>
+        <v>4285.453558359738</v>
       </c>
       <c r="W37" t="n">
-        <v>4003.233360077266</v>
+        <v>3996.036388322777</v>
       </c>
       <c r="X37" t="n">
-        <v>3775.243809179249</v>
+        <v>3996.036388322777</v>
       </c>
       <c r="Y37" t="n">
-        <v>3775.243809179249</v>
+        <v>3775.243809179247</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
         <v>1302.911127126629</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>526.9050513325897</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C40" t="n">
-        <v>357.9688684046828</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>357.9688684046828</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>357.9688684046828</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>211.0789209067724</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1266.888764382629</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>1266.888764382629</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>1012.204276176742</v>
       </c>
       <c r="W40" t="n">
-        <v>754.894602230607</v>
+        <v>1012.204276176742</v>
       </c>
       <c r="X40" t="n">
-        <v>526.9050513325897</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y40" t="n">
-        <v>526.9050513325897</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7497,13 +7499,13 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113634</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.603879777666</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>2037.143944996363</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
         <v>2525.810590821615</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>289.9398668627127</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C43" t="n">
-        <v>121.0036839348058</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D43" t="n">
-        <v>121.0036839348058</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>471.5883316929525</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>4270.206469545892</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>4549.746534764589</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405893</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1449.285092748542</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1449.285092748542</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1160.1564539621</v>
       </c>
       <c r="V46" t="n">
-        <v>620.0096834386067</v>
+        <v>1160.1564539621</v>
       </c>
       <c r="W46" t="n">
-        <v>620.0096834386067</v>
+        <v>1160.1564539621</v>
       </c>
       <c r="X46" t="n">
-        <v>392.0201325405893</v>
+        <v>932.166903064083</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.0201325405893</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>50.62661940943616</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>285.1031356539329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.751552729297</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>62.79465928983029</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>43.6598726146247</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10428,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.12263706262991</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165115</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>272.8719470256807</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.5092576192343</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.14409596996995</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>10.00426342195829</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>117.9134371299502</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.3491679445287</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>91.96708428239324</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>43.62553263122595</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>61.43535642027913</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>188.9614108598529</v>
       </c>
       <c r="V22" t="n">
-        <v>81.39558933609683</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>77.49311400342265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>200.9106026395465</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.05558309603569</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>78.46578492991524</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>34.10140830077174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>87.74662844878108</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>98.12424020820011</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>89.90256167418514</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>85.81734565513266</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>190.2755522727875</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819411</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>53.77035731135592</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>189.7611399284714</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>148.5625001845258</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.8852360967944</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25840,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>148.7859439523362</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>87.72584551629515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049992</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="E2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327923</v>
-      </c>
       <c r="K2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007452</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007452</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888756</v>
+        <v>-246014.7670888761</v>
       </c>
       <c r="C6" t="n">
+        <v>343953.1121256689</v>
+      </c>
+      <c r="D6" t="n">
         <v>343953.1121256686</v>
       </c>
-      <c r="D6" t="n">
-        <v>343953.1121256684</v>
-      </c>
       <c r="E6" t="n">
-        <v>-77623.41044882825</v>
+        <v>-77623.41044882794</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280682</v>
+        <v>447536.6260280684</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280679</v>
+        <v>447536.626028068</v>
       </c>
       <c r="H6" t="n">
         <v>447536.626028068</v>
       </c>
       <c r="I6" t="n">
+        <v>447536.6260280679</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271113.4068354748</v>
+      </c>
+      <c r="K6" t="n">
+        <v>447536.626028068</v>
+      </c>
+      <c r="L6" t="n">
+        <v>447536.6260280684</v>
+      </c>
+      <c r="M6" t="n">
+        <v>312735.6107942309</v>
+      </c>
+      <c r="N6" t="n">
         <v>447536.6260280678</v>
-      </c>
-      <c r="J6" t="n">
-        <v>271113.4068354754</v>
-      </c>
-      <c r="K6" t="n">
-        <v>447536.6260280678</v>
-      </c>
-      <c r="L6" t="n">
-        <v>447536.6260280682</v>
-      </c>
-      <c r="M6" t="n">
-        <v>312735.6107942308</v>
-      </c>
-      <c r="N6" t="n">
-        <v>447536.6260280681</v>
       </c>
       <c r="O6" t="n">
         <v>447536.6260280682</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.6260280679</v>
+        <v>447536.626028068</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>327.5478448485068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>107.9695682400456</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>236.2401853424085</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>246.8805075939531</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9079103744955</v>
+        <v>15.2496095178667</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>76.96683368510148</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>49.80904827649545</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>191.2580236464381</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>45.48327928098115</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>83.14190225882896</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>163.4844670384142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29761,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29934,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>201.2020579973754</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35506,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35732,13 +35734,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>595.5275127043992</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>535.7175786218068</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35747,7 +35749,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>744.1759297797634</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110541</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>373.2190363402966</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>437.8187244348073</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
@@ -36455,7 +36457,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,13 +36685,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36914,13 +36916,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>354.084249665091</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36929,7 +36931,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>178.6980756505691</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799246</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664038</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>583.2963240761469</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>493.602672550759</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>226.2375109014947</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2421598.898993468</v>
+        <v>2426538.1618425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9700744.674908342</v>
+        <v>9700744.67490834</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>228.6438434528996</v>
       </c>
       <c r="F2" t="n">
-        <v>311.5971164302539</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>43.95972835281664</v>
+        <v>43.95972835281675</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>290.126288427413</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>162.9033893520716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>48.26252137233787</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>103.5280487491366</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>89.30725745073089</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229353</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>117.0343205662327</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065117</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>156.0412633051619</v>
       </c>
       <c r="W16" t="n">
-        <v>40.59850439612192</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>13.41277313418331</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>95.69941725530019</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0.478775206146895</v>
+        <v>80.14352268626382</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.98116270599785</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>152.5773305416122</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>234.1231749377856</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.459896748108794</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527387</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>79.87649628048896</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052004</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.01153903325422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896898</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052004</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>151.8528262840321</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.87916681139858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4315,13 +4315,13 @@
         <v>1267.312047941847</v>
       </c>
       <c r="E2" t="n">
-        <v>1267.312047941847</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>403.6754589963299</v>
+        <v>403.67545899633</v>
       </c>
       <c r="G4" t="n">
-        <v>234.6756587346623</v>
+        <v>234.6756587346624</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2532.600212884817</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2313.96554585688</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2060.203760494971</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1729.1408731514</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="T8" t="n">
-        <v>2361.369127247596</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.607341885688</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.607341885688</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>291.042280278609</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>144.1523327806987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126481</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>510.2366179610304</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>510.2366179610304</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>510.2366179610304</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>362.3235243786373</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>215.4335768807229</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,7 +5205,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471189</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>510.2366179610304</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811258</v>
+        <v>1230.223729437746</v>
       </c>
       <c r="W16" t="n">
-        <v>714.1745431820127</v>
+        <v>940.8065594007854</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.9406688315595</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,13 +5682,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>681.3817128053294</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>460.5891336617992</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
         <v>358.2718071316295</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.7324460062426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>341.7962630783358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>341.7962630783358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>193.8831694959426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>193.8831694959426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>193.8831694959426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>193.8831694959426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5919,13 +5919,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.78763177146</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344997</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364824</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>692.3809108364824</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,13 +6156,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>963.6521305054455</v>
+        <v>1194.17780212896</v>
       </c>
       <c r="V25" t="n">
-        <v>963.6521305054455</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="W25" t="n">
-        <v>674.2349604684849</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X25" t="n">
-        <v>674.2349604684849</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.2349604684849</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,16 +6305,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402495</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
         <v>247.6350999123426</v>
@@ -6387,49 +6387,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585739</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.84116711972</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035273</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247785</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247785</v>
+        <v>1121.01233964881</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247785</v>
+        <v>1121.01233964881</v>
       </c>
       <c r="W28" t="n">
-        <v>674.7185717878178</v>
+        <v>1121.01233964881</v>
       </c>
       <c r="X28" t="n">
-        <v>674.7185717878178</v>
+        <v>893.0227887507926</v>
       </c>
       <c r="Y28" t="n">
-        <v>453.9259926442877</v>
+        <v>893.0227887507926</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>727.647686332073</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>102.7321386805978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>720.4504516500522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805449</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822441</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,19 +6940,19 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6967,22 +6967,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372629</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,25 +7171,25 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,25 +7198,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158043</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.04845837674</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.070939158949</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570734</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>531.1091870201128</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155865</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7408,55 +7408,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571606</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636246</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>807.0580565471716</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.7065213774114</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571606</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636246</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>709.4512536188987</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>420.0340835819381</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>192.0445326839207</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>159.0121003135241</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>159.0121003135241</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928347</v>
+        <v>449.5135334928342</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.6461250100662</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776765</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208077</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>49.45924789714489</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43092547709159</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>96.09638001866608</v>
       </c>
       <c r="W16" t="n">
-        <v>245.9244939404691</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>153.8340479644445</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>14.7198282089718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>285.7585771924304</v>
+        <v>206.0938297123135</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.8508174759394</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>133.6600218569651</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>52.11417746079172</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>143.1555762701036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>99.95548390144833</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.5731143188406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>15.39399481459569</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.7054865406962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146201</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
@@ -26340,22 +26340,22 @@
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="O2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.887962305766036e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.469477151088675e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26429,37 +26429,37 @@
         <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007489</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007488</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007388</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.73165600754</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007416</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007412</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.73165600749</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007563</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007488</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888761</v>
+        <v>-246014.7670888762</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256687</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256682</v>
+        <v>343953.1121256683</v>
       </c>
       <c r="E6" t="n">
-        <v>-78598.00170854943</v>
+        <v>-77720.86957480021</v>
       </c>
       <c r="F6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="G6" t="n">
-        <v>446562.0347683461</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="H6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="I6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="J6" t="n">
-        <v>270138.8155757534</v>
+        <v>271015.9477095027</v>
       </c>
       <c r="K6" t="n">
-        <v>446562.0347683465</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="L6" t="n">
-        <v>446562.0347683461</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="M6" t="n">
-        <v>311761.0195345095</v>
+        <v>312638.1516682589</v>
       </c>
       <c r="N6" t="n">
-        <v>446562.0347683465</v>
+        <v>447439.1669020954</v>
       </c>
       <c r="O6" t="n">
-        <v>446562.0347683466</v>
+        <v>447439.1669020959</v>
       </c>
       <c r="P6" t="n">
-        <v>446562.0347683466</v>
+        <v>447439.1669020958</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.109952882207544e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.109952882207544e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26825,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.109952882207544e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.586846438860844e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,34 +27020,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>540.9263704990176</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.926370499017</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>153.2865266193621</v>
       </c>
       <c r="F2" t="n">
-        <v>95.27892931145749</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2111604889785</v>
+        <v>112.2111604889784</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.51232345689996</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.215881202473852</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>112.9202716085212</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78.00254480832002</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4187013741504</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-4.006276791794032e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.136424966418412e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.586846438860844e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-5.586846438860844e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.855731405068853e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.109952882207544e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
@@ -31767,16 +31767,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946991</v>
@@ -31791,7 +31791,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354892</v>
@@ -31837,25 +31837,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458548</v>
@@ -31864,13 +31864,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,19 +31916,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
@@ -31937,22 +31937,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560242</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>366.1055152450488</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>366.1055152450488</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006117936</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>384.9870895382558</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>215.6591577951402</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092011</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523322</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
